--- a/example_data/EPA/label_corrected/000264-01167-20180123_2019-05-15_130856.xlsx
+++ b/example_data/EPA/label_corrected/000264-01167-20180123_2019-05-15_130856.xlsx
@@ -801,7 +801,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Env warning - species || Env warning - water || Application instructions || Off Target Movement</t>
+          <t>off target movement || application instructions || env warning - species || env warning - water</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
